--- a/src/main/resources/template_invoice.xlsx
+++ b/src/main/resources/template_invoice.xlsx
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>eigyo@idea.co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>請　求　日</t>
     <rPh sb="0" eb="1">
       <t>ショウ</t>
@@ -266,6 +262,10 @@
     <rPh sb="7" eb="9">
       <t>ゼイコ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eigyo@example.co.jp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -993,6 +993,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1059,9 +1149,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,93 +1217,6 @@
     </xf>
     <xf numFmtId="5" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="6" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1569,76 +1569,76 @@
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:34" ht="13.5" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
     </row>
     <row r="2" spans="1:34" ht="13.5" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="5"/>
@@ -1664,20 +1664,20 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="64" t="s">
+      <c r="X3" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="5"/>
@@ -1703,20 +1703,20 @@
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="64" t="s">
+      <c r="X4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="5"/>
@@ -1756,13 +1756,13 @@
     <row r="6" spans="1:34">
       <c r="A6" s="5"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -1793,21 +1793,21 @@
     <row r="7" spans="1:34">
       <c r="A7" s="5"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
+      <c r="C7" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -1830,106 +1830,106 @@
     <row r="8" spans="1:34">
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
+      <c r="V8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="67"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
+      <c r="C10" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
+      <c r="V10" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
@@ -1941,77 +1941,77 @@
     <row r="11" spans="1:34">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
+      <c r="V11" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
       <c r="AH11" s="5"/>
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="5"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
+      <c r="C12" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
       <c r="AH12" s="5"/>
     </row>
     <row r="13" spans="1:34">
@@ -2036,18 +2036,18 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
       <c r="AH13" s="5"/>
     </row>
     <row r="14" spans="1:34" ht="13.5" customHeight="1">
@@ -2059,19 +2059,19 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="64" t="s">
+      <c r="X14" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="39" t="s">
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="5"/>
     </row>
@@ -2099,19 +2099,19 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="64" t="s">
+      <c r="X15" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="39" t="s">
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
       <c r="AG15" s="12"/>
       <c r="AH15" s="5"/>
     </row>
@@ -2139,19 +2139,19 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="64" t="s">
+      <c r="X16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
       <c r="AG16" s="12"/>
       <c r="AH16" s="5"/>
     </row>
@@ -2265,28 +2265,28 @@
     </row>
     <row r="20" spans="1:36" ht="13.5" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="59" t="s">
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="60"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="89"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -2304,22 +2304,22 @@
     </row>
     <row r="21" spans="1:36" ht="14.25" customHeight="1" thickBot="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="62"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="91"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -2370,127 +2370,127 @@
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="5"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="47" t="s">
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47" t="s">
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="40" t="s">
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="41"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="70"/>
       <c r="AG23" s="5"/>
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="5"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="43"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="72"/>
       <c r="AG24" s="5"/>
     </row>
     <row r="25" spans="1:36" ht="18" customHeight="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="49" t="s">
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="W25" s="82"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="W25" s="53"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="44" t="s">
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="14.25">
@@ -2509,27 +2509,27 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
-      <c r="P26" s="86" t="s">
+      <c r="P26" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="90"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="90"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="91"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="40"/>
       <c r="AG26" s="5"/>
     </row>
     <row r="27" spans="1:36" ht="14.25">
@@ -2548,27 +2548,27 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="70" t="s">
+      <c r="P27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="81"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="81"/>
-      <c r="AF27" s="82"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="30"/>
       <c r="AG27" s="5"/>
     </row>
     <row r="28" spans="1:36" ht="14.25">
@@ -2587,27 +2587,27 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="81"/>
-      <c r="AF28" s="82"/>
+      <c r="P28" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="30"/>
       <c r="AG28" s="5"/>
     </row>
     <row r="29" spans="1:36" ht="15" thickBot="1">
@@ -2626,27 +2626,27 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="73" t="s">
+      <c r="P29" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="74"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="75"/>
-      <c r="Y29" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="84"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="85"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="33"/>
       <c r="AG29" s="5"/>
     </row>
     <row r="30" spans="1:36">
@@ -2753,7 +2753,7 @@
     <row r="33" spans="1:32">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2820,209 +2820,209 @@
     </row>
     <row r="35" spans="1:32">
       <c r="A35" s="5"/>
-      <c r="B35" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
-      <c r="AA35" s="18"/>
-      <c r="AB35" s="18"/>
-      <c r="AC35" s="18"/>
-      <c r="AD35" s="18"/>
-      <c r="AE35" s="18"/>
-      <c r="AF35" s="19"/>
+      <c r="B35" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="49"/>
     </row>
     <row r="36" spans="1:32">
       <c r="A36" s="5"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="22"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="52"/>
     </row>
     <row r="37" spans="1:32">
       <c r="A37" s="5"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="22"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="52"/>
     </row>
     <row r="38" spans="1:32">
       <c r="A38" s="5"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="22"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="51"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51"/>
+      <c r="AD38" s="51"/>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="52"/>
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="5"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="22"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="52"/>
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="5"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="25"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="54"/>
+      <c r="AD40" s="54"/>
+      <c r="AE40" s="54"/>
+      <c r="AF40" s="55"/>
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="5"/>
@@ -3083,28 +3083,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="P27:X27"/>
-    <mergeCell ref="P28:X28"/>
-    <mergeCell ref="P29:X29"/>
-    <mergeCell ref="Z16:AF16"/>
-    <mergeCell ref="H20:N21"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="Y29:AF29"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="P26:X26"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="C10:O11"/>
-    <mergeCell ref="V8:AG9"/>
-    <mergeCell ref="C7:O9"/>
-    <mergeCell ref="V11:AG13"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AF14"/>
-    <mergeCell ref="AB3:AG3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AB4:AG4"/>
-    <mergeCell ref="X15:Y15"/>
     <mergeCell ref="B35:AF40"/>
     <mergeCell ref="V10:Z10"/>
     <mergeCell ref="C6:G6"/>
@@ -3121,6 +3099,28 @@
     <mergeCell ref="V25:X25"/>
     <mergeCell ref="B20:G21"/>
     <mergeCell ref="O20:Q21"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AG4"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="C10:O11"/>
+    <mergeCell ref="V8:AG9"/>
+    <mergeCell ref="C7:O9"/>
+    <mergeCell ref="V11:AG13"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AF14"/>
+    <mergeCell ref="P27:X27"/>
+    <mergeCell ref="P28:X28"/>
+    <mergeCell ref="P29:X29"/>
+    <mergeCell ref="Z16:AF16"/>
+    <mergeCell ref="H20:N21"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="P26:X26"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Y26:AF26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
